--- a/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12994B7-3E53-4BBF-873A-2BD9164FE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CBE7A-B7AC-4A18-92EA-4FEC320A96A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکویر-کویر تایر</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -68,21 +53,6 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
-  </si>
-  <si>
-    <t>1400-05-28 (6)</t>
-  </si>
-  <si>
-    <t>1400-07-28 (2)</t>
-  </si>
-  <si>
-    <t>1400-12-02 (9)</t>
-  </si>
-  <si>
-    <t>1401-01-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-05-31 (6)</t>
   </si>
   <si>
     <t>1401-07-30 (2)</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1971464</v>
+        <v>4575190</v>
       </c>
       <c r="E11" s="13">
-        <v>2819925</v>
+        <v>5465029</v>
       </c>
       <c r="F11" s="13">
-        <v>4299966</v>
+        <v>5087108</v>
       </c>
       <c r="G11" s="13">
-        <v>4137806</v>
+        <v>6957518</v>
       </c>
       <c r="H11" s="13">
-        <v>5721715</v>
-      </c>
-      <c r="I11" s="13">
-        <v>4575190</v>
-      </c>
-      <c r="J11" s="13">
-        <v>5465029</v>
-      </c>
-      <c r="K11" s="13">
-        <v>5087108</v>
-      </c>
-      <c r="L11" s="13">
-        <v>6957518</v>
-      </c>
-      <c r="M11" s="13">
         <v>6567840</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1622874</v>
+        <v>-3541220</v>
       </c>
       <c r="E12" s="11">
-        <v>-1772138</v>
+        <v>-4414713</v>
       </c>
       <c r="F12" s="11">
-        <v>-3490031</v>
+        <v>-3989842</v>
       </c>
       <c r="G12" s="11">
-        <v>-2711326</v>
+        <v>-6261866</v>
       </c>
       <c r="H12" s="11">
-        <v>-3958472</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-3541220</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-4414713</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-3989842</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-6261866</v>
-      </c>
-      <c r="M12" s="11">
         <v>-5487114</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>348590</v>
+        <v>1033970</v>
       </c>
       <c r="E13" s="15">
-        <v>1047787</v>
+        <v>1050316</v>
       </c>
       <c r="F13" s="15">
-        <v>809935</v>
+        <v>1097266</v>
       </c>
       <c r="G13" s="15">
-        <v>1426480</v>
+        <v>695652</v>
       </c>
       <c r="H13" s="15">
-        <v>1763243</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1033970</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1050316</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1097266</v>
-      </c>
-      <c r="L13" s="15">
-        <v>695652</v>
-      </c>
-      <c r="M13" s="15">
         <v>1080726</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-123449</v>
+        <v>-199790</v>
       </c>
       <c r="E14" s="11">
-        <v>-104981</v>
+        <v>-372674</v>
       </c>
       <c r="F14" s="11">
-        <v>-304609</v>
+        <v>-255442</v>
       </c>
       <c r="G14" s="11">
-        <v>-133908</v>
+        <v>-495549</v>
       </c>
       <c r="H14" s="11">
-        <v>-350840</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-199790</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-372674</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-255442</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-495549</v>
-      </c>
-      <c r="M14" s="11">
         <v>-395299</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>41</v>
+        <v>-61663</v>
       </c>
       <c r="E16" s="11">
-        <v>2756</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>-2728</v>
+        <v>32808</v>
       </c>
       <c r="G16" s="11">
-        <v>139</v>
+        <v>50018</v>
       </c>
       <c r="H16" s="11">
-        <v>61664</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-61663</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>32808</v>
-      </c>
-      <c r="L16" s="11">
-        <v>50018</v>
-      </c>
-      <c r="M16" s="11">
         <v>18397</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>225182</v>
+        <v>772517</v>
       </c>
       <c r="E17" s="15">
-        <v>945562</v>
+        <v>677642</v>
       </c>
       <c r="F17" s="15">
-        <v>502598</v>
+        <v>874632</v>
       </c>
       <c r="G17" s="15">
-        <v>1292711</v>
+        <v>250121</v>
       </c>
       <c r="H17" s="15">
-        <v>1474067</v>
-      </c>
-      <c r="I17" s="15">
-        <v>772517</v>
-      </c>
-      <c r="J17" s="15">
-        <v>677642</v>
-      </c>
-      <c r="K17" s="15">
-        <v>874632</v>
-      </c>
-      <c r="L17" s="15">
-        <v>250121</v>
-      </c>
-      <c r="M17" s="15">
         <v>703824</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-47323</v>
+        <v>-187798</v>
       </c>
       <c r="E18" s="11">
-        <v>-95820</v>
+        <v>-360225</v>
       </c>
       <c r="F18" s="11">
-        <v>-177366</v>
+        <v>-345683</v>
       </c>
       <c r="G18" s="11">
-        <v>-218245</v>
+        <v>-392259</v>
       </c>
       <c r="H18" s="11">
-        <v>-196664</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-187798</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-360225</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-345683</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-392259</v>
-      </c>
-      <c r="M18" s="11">
         <v>-268375</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>35808</v>
+        <v>100830</v>
       </c>
       <c r="E19" s="13">
-        <v>173694</v>
+        <v>41067</v>
       </c>
       <c r="F19" s="13">
-        <v>149620</v>
+        <v>35659</v>
       </c>
       <c r="G19" s="13">
-        <v>49885</v>
+        <v>41550</v>
       </c>
       <c r="H19" s="13">
-        <v>-36359</v>
-      </c>
-      <c r="I19" s="13">
-        <v>100830</v>
-      </c>
-      <c r="J19" s="13">
-        <v>41067</v>
-      </c>
-      <c r="K19" s="13">
-        <v>35659</v>
-      </c>
-      <c r="L19" s="13">
-        <v>41550</v>
-      </c>
-      <c r="M19" s="13">
         <v>70991</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>213667</v>
+        <v>685549</v>
       </c>
       <c r="E20" s="17">
-        <v>1023436</v>
+        <v>358484</v>
       </c>
       <c r="F20" s="17">
-        <v>474852</v>
+        <v>564608</v>
       </c>
       <c r="G20" s="17">
-        <v>1124351</v>
+        <v>-100588</v>
       </c>
       <c r="H20" s="17">
-        <v>1241044</v>
-      </c>
-      <c r="I20" s="17">
-        <v>685549</v>
-      </c>
-      <c r="J20" s="17">
-        <v>358484</v>
-      </c>
-      <c r="K20" s="17">
-        <v>564608</v>
-      </c>
-      <c r="L20" s="17">
-        <v>-100588</v>
-      </c>
-      <c r="M20" s="17">
         <v>506440</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-185049</v>
+        <v>-133580</v>
       </c>
       <c r="E21" s="13">
-        <v>-294020</v>
+        <v>2828</v>
       </c>
       <c r="F21" s="13">
-        <v>-217783</v>
+        <v>-126979</v>
       </c>
       <c r="G21" s="13">
-        <v>-248284</v>
+        <v>39188</v>
       </c>
       <c r="H21" s="13">
-        <v>-120841</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-133580</v>
-      </c>
-      <c r="J21" s="13">
-        <v>2828</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-126979</v>
-      </c>
-      <c r="L21" s="13">
-        <v>39188</v>
-      </c>
-      <c r="M21" s="13">
         <v>-88144</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>28618</v>
+        <v>551969</v>
       </c>
       <c r="E22" s="17">
-        <v>729416</v>
+        <v>361312</v>
       </c>
       <c r="F22" s="17">
-        <v>257069</v>
+        <v>437629</v>
       </c>
       <c r="G22" s="17">
-        <v>876067</v>
+        <v>-61400</v>
       </c>
       <c r="H22" s="17">
-        <v>1120203</v>
-      </c>
-      <c r="I22" s="17">
-        <v>551969</v>
-      </c>
-      <c r="J22" s="17">
-        <v>361312</v>
-      </c>
-      <c r="K22" s="17">
-        <v>437629</v>
-      </c>
-      <c r="L22" s="17">
-        <v>-61400</v>
-      </c>
-      <c r="M22" s="17">
         <v>418296</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,101 +992,56 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>28618</v>
+        <v>551969</v>
       </c>
       <c r="E24" s="17">
-        <v>729416</v>
+        <v>361312</v>
       </c>
       <c r="F24" s="17">
-        <v>257069</v>
+        <v>437629</v>
       </c>
       <c r="G24" s="17">
-        <v>876067</v>
+        <v>-61400</v>
       </c>
       <c r="H24" s="17">
-        <v>1120203</v>
-      </c>
-      <c r="I24" s="17">
-        <v>551969</v>
-      </c>
-      <c r="J24" s="17">
-        <v>361312</v>
-      </c>
-      <c r="K24" s="17">
-        <v>437629</v>
-      </c>
-      <c r="L24" s="17">
-        <v>-61400</v>
-      </c>
-      <c r="M24" s="17">
         <v>418296</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="E25" s="13">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="F25" s="13">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="G25" s="13">
-        <v>402</v>
+        <v>-28</v>
       </c>
       <c r="H25" s="13">
-        <v>514</v>
-      </c>
-      <c r="I25" s="13">
-        <v>253</v>
-      </c>
-      <c r="J25" s="13">
-        <v>166</v>
-      </c>
-      <c r="K25" s="13">
-        <v>201</v>
-      </c>
-      <c r="L25" s="13">
-        <v>-28</v>
-      </c>
-      <c r="M25" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2066240</v>
+        <v>2180000</v>
       </c>
       <c r="E26" s="11">
         <v>2180000</v>
@@ -1380,61 +1053,31 @@
         <v>2180000</v>
       </c>
       <c r="H26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="M26" s="11">
         <v>4360000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="E27" s="13">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="F27" s="13">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G27" s="13">
-        <v>201</v>
+        <v>-14</v>
       </c>
       <c r="H27" s="13">
-        <v>257</v>
-      </c>
-      <c r="I27" s="13">
-        <v>127</v>
-      </c>
-      <c r="J27" s="13">
-        <v>83</v>
-      </c>
-      <c r="K27" s="13">
-        <v>100</v>
-      </c>
-      <c r="L27" s="13">
-        <v>-14</v>
-      </c>
-      <c r="M27" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CBE7A-B7AC-4A18-92EA-4FEC320A96A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEE6E1-9A91-4B89-BC7C-DD6E11ED9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-07-28 (2)</t>
+  </si>
+  <si>
+    <t>1400-12-02 (9)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-05-31 (6)</t>
+  </si>
+  <si>
     <t>1401-07-30 (2)</t>
   </si>
   <si>
-    <t>1401-07-30 (6)</t>
+    <t>1401-11-30 (7)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -68,6 +95,9 @@
   </si>
   <si>
     <t>1401-07-30</t>
+  </si>
+  <si>
+    <t>1401-11-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -585,20 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +639,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +655,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +671,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +685,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +701,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +717,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +731,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +757,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +817,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>2819925</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4299966</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4137806</v>
+      </c>
+      <c r="G11" s="13">
+        <v>5721715</v>
+      </c>
+      <c r="H11" s="13">
         <v>4575190</v>
       </c>
-      <c r="E11" s="13">
+      <c r="I11" s="13">
         <v>5465029</v>
       </c>
-      <c r="F11" s="13">
+      <c r="J11" s="13">
         <v>5087108</v>
       </c>
-      <c r="G11" s="13">
+      <c r="K11" s="13">
         <v>6957518</v>
       </c>
-      <c r="H11" s="13">
+      <c r="L11" s="13">
         <v>6567840</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
+        <v>8027245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1772138</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3490031</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-2711326</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-3958472</v>
+      </c>
+      <c r="H12" s="11">
         <v>-3541220</v>
       </c>
-      <c r="E12" s="11">
+      <c r="I12" s="11">
         <v>-4414713</v>
       </c>
-      <c r="F12" s="11">
+      <c r="J12" s="11">
         <v>-3989842</v>
       </c>
-      <c r="G12" s="11">
+      <c r="K12" s="11">
         <v>-6261866</v>
       </c>
-      <c r="H12" s="11">
+      <c r="L12" s="11">
         <v>-5487114</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <v>-6154017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>1047787</v>
+      </c>
+      <c r="E13" s="15">
+        <v>809935</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1426480</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1763243</v>
+      </c>
+      <c r="H13" s="15">
         <v>1033970</v>
       </c>
-      <c r="E13" s="15">
+      <c r="I13" s="15">
         <v>1050316</v>
       </c>
-      <c r="F13" s="15">
+      <c r="J13" s="15">
         <v>1097266</v>
       </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15">
         <v>695652</v>
       </c>
-      <c r="H13" s="15">
+      <c r="L13" s="15">
         <v>1080726</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="15">
+        <v>1873228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-104981</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-304609</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-133908</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-350840</v>
+      </c>
+      <c r="H14" s="11">
         <v>-199790</v>
       </c>
-      <c r="E14" s="11">
+      <c r="I14" s="11">
         <v>-372674</v>
       </c>
-      <c r="F14" s="11">
+      <c r="J14" s="11">
         <v>-255442</v>
       </c>
-      <c r="G14" s="11">
+      <c r="K14" s="11">
         <v>-495549</v>
       </c>
-      <c r="H14" s="11">
+      <c r="L14" s="11">
         <v>-395299</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>-551322</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +987,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>2756</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-2728</v>
+      </c>
+      <c r="F16" s="11">
+        <v>139</v>
+      </c>
+      <c r="G16" s="11">
+        <v>61664</v>
+      </c>
+      <c r="H16" s="11">
         <v>-61663</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="I16" s="11">
+        <v>138537</v>
+      </c>
+      <c r="J16" s="11">
         <v>32808</v>
       </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11">
         <v>50018</v>
       </c>
-      <c r="H16" s="11">
+      <c r="L16" s="11">
         <v>18397</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="11">
+        <v>236722</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>945562</v>
+      </c>
+      <c r="E17" s="15">
+        <v>502598</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1292711</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1474067</v>
+      </c>
+      <c r="H17" s="15">
         <v>772517</v>
       </c>
-      <c r="E17" s="15">
-        <v>677642</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="I17" s="15">
+        <v>816179</v>
+      </c>
+      <c r="J17" s="15">
         <v>874632</v>
       </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
         <v>250121</v>
       </c>
-      <c r="H17" s="15">
+      <c r="L17" s="15">
         <v>703824</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="15">
+        <v>1558628</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-95820</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-177366</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-218245</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-196664</v>
+      </c>
+      <c r="H18" s="11">
         <v>-187798</v>
       </c>
-      <c r="E18" s="11">
+      <c r="I18" s="11">
         <v>-360225</v>
       </c>
-      <c r="F18" s="11">
+      <c r="J18" s="11">
         <v>-345683</v>
       </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11">
         <v>-392259</v>
       </c>
-      <c r="H18" s="11">
+      <c r="L18" s="11">
         <v>-268375</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="11">
+        <v>-457424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>173694</v>
+      </c>
+      <c r="E19" s="13">
+        <v>149620</v>
+      </c>
+      <c r="F19" s="13">
+        <v>49885</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-36359</v>
+      </c>
+      <c r="H19" s="13">
         <v>100830</v>
       </c>
-      <c r="E19" s="13">
-        <v>41067</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="I19" s="13">
+        <v>-97146</v>
+      </c>
+      <c r="J19" s="13">
         <v>35659</v>
       </c>
-      <c r="G19" s="13">
+      <c r="K19" s="13">
         <v>41550</v>
       </c>
-      <c r="H19" s="13">
+      <c r="L19" s="13">
         <v>70991</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="13">
+        <v>-99110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>1023436</v>
+      </c>
+      <c r="E20" s="17">
+        <v>474852</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1124351</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1241044</v>
+      </c>
+      <c r="H20" s="17">
         <v>685549</v>
       </c>
-      <c r="E20" s="17">
-        <v>358484</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="I20" s="17">
+        <v>358808</v>
+      </c>
+      <c r="J20" s="17">
         <v>564608</v>
       </c>
-      <c r="G20" s="17">
+      <c r="K20" s="17">
         <v>-100588</v>
       </c>
-      <c r="H20" s="17">
+      <c r="L20" s="17">
         <v>506440</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="17">
+        <v>1002094</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-294020</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-217783</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-248284</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-120841</v>
+      </c>
+      <c r="H21" s="13">
         <v>-133580</v>
       </c>
-      <c r="E21" s="13">
+      <c r="I21" s="13">
         <v>2828</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>-126979</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>39188</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>-88144</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="13">
+        <v>-195268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>729416</v>
+      </c>
+      <c r="E22" s="17">
+        <v>257069</v>
+      </c>
+      <c r="F22" s="17">
+        <v>876067</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1120203</v>
+      </c>
+      <c r="H22" s="17">
         <v>551969</v>
       </c>
-      <c r="E22" s="17">
-        <v>361312</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="I22" s="17">
+        <v>361636</v>
+      </c>
+      <c r="J22" s="17">
         <v>437629</v>
       </c>
-      <c r="G22" s="17">
+      <c r="K22" s="17">
         <v>-61400</v>
       </c>
-      <c r="H22" s="17">
+      <c r="L22" s="17">
         <v>418296</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="17">
+        <v>806826</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1275,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>729416</v>
+      </c>
+      <c r="E24" s="17">
+        <v>257069</v>
+      </c>
+      <c r="F24" s="17">
+        <v>876067</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1120203</v>
+      </c>
+      <c r="H24" s="17">
         <v>551969</v>
       </c>
-      <c r="E24" s="17">
-        <v>361312</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="I24" s="17">
+        <v>361636</v>
+      </c>
+      <c r="J24" s="17">
         <v>437629</v>
       </c>
-      <c r="G24" s="17">
+      <c r="K24" s="17">
         <v>-61400</v>
       </c>
-      <c r="H24" s="17">
+      <c r="L24" s="17">
         <v>418296</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M24" s="17">
+        <v>806826</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>335</v>
+      </c>
+      <c r="E25" s="13">
+        <v>118</v>
+      </c>
+      <c r="F25" s="13">
+        <v>402</v>
+      </c>
+      <c r="G25" s="13">
+        <v>514</v>
+      </c>
+      <c r="H25" s="13">
         <v>253</v>
       </c>
-      <c r="E25" s="13">
+      <c r="I25" s="13">
         <v>166</v>
       </c>
-      <c r="F25" s="13">
+      <c r="J25" s="13">
         <v>201</v>
       </c>
-      <c r="G25" s="13">
+      <c r="K25" s="13">
         <v>-28</v>
       </c>
-      <c r="H25" s="13">
+      <c r="L25" s="13">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1053,31 +1381,61 @@
         <v>2180000</v>
       </c>
       <c r="H26" s="11">
+        <v>2180000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2180000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2180000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2180000</v>
+      </c>
+      <c r="L26" s="11">
         <v>4360000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="11">
+        <v>4360000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E27" s="13">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F27" s="13">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="G27" s="13">
-        <v>-14</v>
+        <v>171</v>
       </c>
       <c r="H27" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I27" s="13">
+        <v>55</v>
+      </c>
+      <c r="J27" s="13">
+        <v>67</v>
+      </c>
+      <c r="K27" s="13">
+        <v>-9</v>
+      </c>
+      <c r="L27" s="13">
+        <v>64</v>
+      </c>
+      <c r="M27" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1443,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEE6E1-9A91-4B89-BC7C-DD6E11ED9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,10 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1396,7 +1397,8 @@
         <v>4360000</v>
       </c>
       <c r="M26" s="11">
-        <v>4360000</v>
+        <f>4360000*1.5</f>
+        <v>6540000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B8130-0930-4B32-86BD-B2FB94AFA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-28 (2)</t>
-  </si>
-  <si>
     <t>1400-12-02 (9)</t>
   </si>
   <si>
@@ -84,10 +82,10 @@
     <t>1401-07-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-12 (8)</t>
+  </si>
+  <si>
+    <t>1402-01-30 (2)</t>
   </si>
   <si>
     <t>1401-05-31 (2)</t>
@@ -96,7 +94,10 @@
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1401-11-30</t>
+    <t>1402-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,26 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -692,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -774,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -810,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -824,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2819925</v>
+        <v>4299966</v>
       </c>
       <c r="E11" s="13">
-        <v>4299966</v>
+        <v>4137806</v>
       </c>
       <c r="F11" s="13">
-        <v>4137806</v>
+        <v>5721715</v>
       </c>
       <c r="G11" s="13">
-        <v>5721715</v>
+        <v>4575190</v>
       </c>
       <c r="H11" s="13">
-        <v>4575190</v>
+        <v>5465029</v>
       </c>
       <c r="I11" s="13">
-        <v>5465029</v>
+        <v>5087108</v>
       </c>
       <c r="J11" s="13">
-        <v>5087108</v>
+        <v>6957518</v>
       </c>
       <c r="K11" s="13">
-        <v>6957518</v>
+        <v>6567840</v>
       </c>
       <c r="L11" s="13">
-        <v>6567840</v>
+        <v>8027245</v>
       </c>
       <c r="M11" s="13">
-        <v>8027245</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1772138</v>
+        <v>-3490031</v>
       </c>
       <c r="E12" s="11">
-        <v>-3490031</v>
+        <v>-2711326</v>
       </c>
       <c r="F12" s="11">
-        <v>-2711326</v>
+        <v>-3958472</v>
       </c>
       <c r="G12" s="11">
-        <v>-3958472</v>
+        <v>-3541220</v>
       </c>
       <c r="H12" s="11">
-        <v>-3541220</v>
+        <v>-4414713</v>
       </c>
       <c r="I12" s="11">
-        <v>-4414713</v>
+        <v>-3989842</v>
       </c>
       <c r="J12" s="11">
-        <v>-3989842</v>
+        <v>-6261866</v>
       </c>
       <c r="K12" s="11">
-        <v>-6261866</v>
+        <v>-5487114</v>
       </c>
       <c r="L12" s="11">
-        <v>-5487114</v>
+        <v>-6155432</v>
       </c>
       <c r="M12" s="11">
-        <v>-6154017</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1047787</v>
+        <v>809935</v>
       </c>
       <c r="E13" s="15">
-        <v>809935</v>
+        <v>1426480</v>
       </c>
       <c r="F13" s="15">
-        <v>1426480</v>
+        <v>1763243</v>
       </c>
       <c r="G13" s="15">
-        <v>1763243</v>
+        <v>1033970</v>
       </c>
       <c r="H13" s="15">
-        <v>1033970</v>
+        <v>1050316</v>
       </c>
       <c r="I13" s="15">
-        <v>1050316</v>
+        <v>1097266</v>
       </c>
       <c r="J13" s="15">
-        <v>1097266</v>
+        <v>695652</v>
       </c>
       <c r="K13" s="15">
-        <v>695652</v>
+        <v>1080726</v>
       </c>
       <c r="L13" s="15">
-        <v>1080726</v>
+        <v>1871813</v>
       </c>
       <c r="M13" s="15">
-        <v>1873228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2105351</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-104981</v>
+        <v>-304609</v>
       </c>
       <c r="E14" s="11">
-        <v>-304609</v>
+        <v>-133908</v>
       </c>
       <c r="F14" s="11">
-        <v>-133908</v>
+        <v>-350840</v>
       </c>
       <c r="G14" s="11">
-        <v>-350840</v>
+        <v>-199790</v>
       </c>
       <c r="H14" s="11">
-        <v>-199790</v>
+        <v>-372674</v>
       </c>
       <c r="I14" s="11">
-        <v>-372674</v>
+        <v>-255442</v>
       </c>
       <c r="J14" s="11">
-        <v>-255442</v>
+        <v>-495549</v>
       </c>
       <c r="K14" s="11">
-        <v>-495549</v>
+        <v>-395299</v>
       </c>
       <c r="L14" s="11">
-        <v>-395299</v>
+        <v>-549720</v>
       </c>
       <c r="M14" s="11">
-        <v>-551322</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-439231</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1004,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>2756</v>
+        <v>-2728</v>
       </c>
       <c r="E16" s="11">
-        <v>-2728</v>
+        <v>139</v>
       </c>
       <c r="F16" s="11">
-        <v>139</v>
+        <v>61664</v>
       </c>
       <c r="G16" s="11">
-        <v>61664</v>
+        <v>-61663</v>
       </c>
       <c r="H16" s="11">
-        <v>-61663</v>
+        <v>138537</v>
       </c>
       <c r="I16" s="11">
-        <v>138537</v>
+        <v>32808</v>
       </c>
       <c r="J16" s="11">
-        <v>32808</v>
+        <v>50018</v>
       </c>
       <c r="K16" s="11">
-        <v>50018</v>
+        <v>18397</v>
       </c>
       <c r="L16" s="11">
-        <v>18397</v>
+        <v>241337</v>
       </c>
       <c r="M16" s="11">
-        <v>236722</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>69280</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>945562</v>
+        <v>502598</v>
       </c>
       <c r="E17" s="15">
-        <v>502598</v>
+        <v>1292711</v>
       </c>
       <c r="F17" s="15">
-        <v>1292711</v>
+        <v>1474067</v>
       </c>
       <c r="G17" s="15">
-        <v>1474067</v>
+        <v>772517</v>
       </c>
       <c r="H17" s="15">
-        <v>772517</v>
+        <v>816179</v>
       </c>
       <c r="I17" s="15">
-        <v>816179</v>
+        <v>874632</v>
       </c>
       <c r="J17" s="15">
-        <v>874632</v>
+        <v>250121</v>
       </c>
       <c r="K17" s="15">
-        <v>250121</v>
+        <v>703824</v>
       </c>
       <c r="L17" s="15">
-        <v>703824</v>
+        <v>1563430</v>
       </c>
       <c r="M17" s="15">
-        <v>1558628</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1735400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-95820</v>
+        <v>-177366</v>
       </c>
       <c r="E18" s="11">
-        <v>-177366</v>
+        <v>-218245</v>
       </c>
       <c r="F18" s="11">
-        <v>-218245</v>
+        <v>-196664</v>
       </c>
       <c r="G18" s="11">
-        <v>-196664</v>
+        <v>-187798</v>
       </c>
       <c r="H18" s="11">
-        <v>-187798</v>
+        <v>-360225</v>
       </c>
       <c r="I18" s="11">
-        <v>-360225</v>
+        <v>-345683</v>
       </c>
       <c r="J18" s="11">
-        <v>-345683</v>
+        <v>-392259</v>
       </c>
       <c r="K18" s="11">
-        <v>-392259</v>
+        <v>-268375</v>
       </c>
       <c r="L18" s="11">
-        <v>-268375</v>
+        <v>-457424</v>
       </c>
       <c r="M18" s="11">
-        <v>-457424</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-480195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>173694</v>
+        <v>149620</v>
       </c>
       <c r="E19" s="13">
-        <v>149620</v>
+        <v>49885</v>
       </c>
       <c r="F19" s="13">
-        <v>49885</v>
+        <v>-36359</v>
       </c>
       <c r="G19" s="13">
-        <v>-36359</v>
+        <v>100830</v>
       </c>
       <c r="H19" s="13">
-        <v>100830</v>
+        <v>-97470</v>
       </c>
       <c r="I19" s="13">
-        <v>-97146</v>
+        <v>35659</v>
       </c>
       <c r="J19" s="13">
-        <v>35659</v>
+        <v>41550</v>
       </c>
       <c r="K19" s="13">
-        <v>41550</v>
+        <v>70991</v>
       </c>
       <c r="L19" s="13">
-        <v>70991</v>
+        <v>-93644</v>
       </c>
       <c r="M19" s="13">
-        <v>-99110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1023436</v>
+        <v>474852</v>
       </c>
       <c r="E20" s="17">
-        <v>474852</v>
+        <v>1124351</v>
       </c>
       <c r="F20" s="17">
-        <v>1124351</v>
+        <v>1241044</v>
       </c>
       <c r="G20" s="17">
-        <v>1241044</v>
+        <v>685549</v>
       </c>
       <c r="H20" s="17">
-        <v>685549</v>
+        <v>358484</v>
       </c>
       <c r="I20" s="17">
-        <v>358808</v>
+        <v>564608</v>
       </c>
       <c r="J20" s="17">
-        <v>564608</v>
+        <v>-100588</v>
       </c>
       <c r="K20" s="17">
-        <v>-100588</v>
+        <v>506440</v>
       </c>
       <c r="L20" s="17">
-        <v>506440</v>
+        <v>1012362</v>
       </c>
       <c r="M20" s="17">
-        <v>1002094</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1257933</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-294020</v>
+        <v>-217783</v>
       </c>
       <c r="E21" s="13">
-        <v>-217783</v>
+        <v>-248284</v>
       </c>
       <c r="F21" s="13">
-        <v>-248284</v>
+        <v>-120841</v>
       </c>
       <c r="G21" s="13">
-        <v>-120841</v>
+        <v>-133580</v>
       </c>
       <c r="H21" s="13">
-        <v>-133580</v>
+        <v>2828</v>
       </c>
       <c r="I21" s="13">
-        <v>2828</v>
+        <v>-126979</v>
       </c>
       <c r="J21" s="13">
-        <v>-126979</v>
+        <v>39188</v>
       </c>
       <c r="K21" s="13">
-        <v>39188</v>
+        <v>-88144</v>
       </c>
       <c r="L21" s="13">
-        <v>-88144</v>
+        <v>-194036</v>
       </c>
       <c r="M21" s="13">
-        <v>-195268</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-249874</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>729416</v>
+        <v>257069</v>
       </c>
       <c r="E22" s="17">
-        <v>257069</v>
+        <v>876067</v>
       </c>
       <c r="F22" s="17">
-        <v>876067</v>
+        <v>1120203</v>
       </c>
       <c r="G22" s="17">
-        <v>1120203</v>
+        <v>551969</v>
       </c>
       <c r="H22" s="17">
-        <v>551969</v>
+        <v>361312</v>
       </c>
       <c r="I22" s="17">
-        <v>361636</v>
+        <v>437629</v>
       </c>
       <c r="J22" s="17">
-        <v>437629</v>
+        <v>-61400</v>
       </c>
       <c r="K22" s="17">
-        <v>-61400</v>
+        <v>418296</v>
       </c>
       <c r="L22" s="17">
-        <v>418296</v>
+        <v>818326</v>
       </c>
       <c r="M22" s="17">
-        <v>806826</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1008059</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1292,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>729416</v>
+        <v>257069</v>
       </c>
       <c r="E24" s="17">
-        <v>257069</v>
+        <v>876067</v>
       </c>
       <c r="F24" s="17">
-        <v>876067</v>
+        <v>1120203</v>
       </c>
       <c r="G24" s="17">
-        <v>1120203</v>
+        <v>551969</v>
       </c>
       <c r="H24" s="17">
-        <v>551969</v>
+        <v>361312</v>
       </c>
       <c r="I24" s="17">
-        <v>361636</v>
+        <v>437629</v>
       </c>
       <c r="J24" s="17">
-        <v>437629</v>
+        <v>-61400</v>
       </c>
       <c r="K24" s="17">
-        <v>-61400</v>
+        <v>418296</v>
       </c>
       <c r="L24" s="17">
-        <v>418296</v>
+        <v>818326</v>
       </c>
       <c r="M24" s="17">
-        <v>806826</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1008059</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="E25" s="13">
-        <v>118</v>
+        <v>402</v>
       </c>
       <c r="F25" s="13">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="G25" s="13">
-        <v>514</v>
+        <v>253</v>
       </c>
       <c r="H25" s="13">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="I25" s="13">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="J25" s="13">
-        <v>201</v>
+        <v>-28</v>
       </c>
       <c r="K25" s="13">
-        <v>-28</v>
+        <v>96</v>
       </c>
       <c r="L25" s="13">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="M25" s="13">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1391,53 +1390,52 @@
         <v>2180000</v>
       </c>
       <c r="K26" s="11">
-        <v>2180000</v>
+        <v>4360000</v>
       </c>
       <c r="L26" s="11">
         <v>4360000</v>
       </c>
       <c r="M26" s="11">
-        <f>4360000*1.5</f>
-        <v>6540000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4360000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E27" s="13">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="F27" s="13">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G27" s="13">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="H27" s="13">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I27" s="13">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J27" s="13">
-        <v>67</v>
+        <v>-9</v>
       </c>
       <c r="K27" s="13">
-        <v>-9</v>
+        <v>64</v>
       </c>
       <c r="L27" s="13">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="M27" s="13">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\lastic\pekavir\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B8130-0930-4B32-86BD-B2FB94AFA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169C89A-541D-4DC5-AFA0-170BCAC1BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-28 (11)</t>
+  </si>
+  <si>
+    <t>1399-12-02 (3)</t>
+  </si>
+  <si>
+    <t>1399-05-28 (6)</t>
+  </si>
+  <si>
+    <t>1399-07-27 (2)</t>
+  </si>
+  <si>
+    <t>1399-12-02 (8)</t>
+  </si>
+  <si>
+    <t>1400-01-29 (3)</t>
+  </si>
+  <si>
+    <t>1400-05-28 (6)</t>
+  </si>
+  <si>
+    <t>1400-07-28 (2)</t>
+  </si>
+  <si>
     <t>1400-12-02 (9)</t>
   </si>
   <si>
@@ -88,18 +142,24 @@
     <t>1402-01-30 (2)</t>
   </si>
   <si>
-    <t>1401-05-31 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30</t>
-  </si>
-  <si>
-    <t>1402-01-30 (3)</t>
+    <t>1402-06-13 (4)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (6)</t>
   </si>
   <si>
     <t>1402-01-30</t>
   </si>
   <si>
+    <t>1402-06-13 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -115,6 +175,9 @@
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
   </si>
   <si>
@@ -127,7 +190,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,23 +678,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="13" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="19" width="29" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
+    <col min="21" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +711,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +737,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +763,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +787,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +813,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +839,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +863,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +909,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,158 +1019,288 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1157981</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4794400</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-2957448</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1311479</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1645969</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1646975</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1971464</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2819925</v>
+      </c>
+      <c r="L11" s="13">
         <v>4299966</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>4137806</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>5721715</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>4575190</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>5465029</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>5087108</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>6957518</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>6567840</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>8027245</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>7803958</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>11215821</v>
+      </c>
+      <c r="W11" s="13">
+        <v>7285325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-864963</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3975010</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2199518</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1124290</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1075228</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-1241053</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-1622874</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-1772138</v>
+      </c>
+      <c r="L12" s="11">
         <v>-3490031</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-2711326</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-3958472</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-3541220</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-4414713</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-3989842</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-6261866</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-5487114</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-6155432</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-5698607</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-7721762</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-5309142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>293018</v>
+      </c>
+      <c r="E13" s="15">
+        <v>819390</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-757930</v>
+      </c>
+      <c r="G13" s="15">
+        <v>187189</v>
+      </c>
+      <c r="H13" s="15">
+        <v>570741</v>
+      </c>
+      <c r="I13" s="15">
+        <v>405922</v>
+      </c>
+      <c r="J13" s="15">
+        <v>348590</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1047787</v>
+      </c>
+      <c r="L13" s="15">
         <v>809935</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>1426480</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>1763243</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>1033970</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>1050316</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>1097266</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>695652</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>1080726</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>1871813</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>2105351</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>3494059</v>
+      </c>
+      <c r="W13" s="15">
+        <v>1976183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-50489</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-394391</v>
+      </c>
+      <c r="F14" s="11">
+        <v>221895</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-50516</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-171379</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-86603</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-123449</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-104981</v>
+      </c>
+      <c r="L14" s="11">
         <v>-304609</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-133908</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-350840</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-199790</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-372674</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-255442</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-495549</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-395299</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-549720</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-439231</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-762371</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-398945</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>0</v>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1002,262 +1329,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-184642</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-121765</v>
+      </c>
+      <c r="F16" s="11">
+        <v>121810</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-121810</v>
+      </c>
+      <c r="I16" s="11">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11">
+        <v>41</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2756</v>
+      </c>
+      <c r="L16" s="11">
         <v>-2728</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>139</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>61664</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>-61663</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>138537</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>32808</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>50018</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>18397</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>241337</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>69280</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>112921</v>
+      </c>
+      <c r="W16" s="11">
+        <v>101806</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>57887</v>
+      </c>
+      <c r="E17" s="15">
+        <v>303234</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-414225</v>
+      </c>
+      <c r="G17" s="15">
+        <v>136673</v>
+      </c>
+      <c r="H17" s="15">
+        <v>277552</v>
+      </c>
+      <c r="I17" s="15">
+        <v>319341</v>
+      </c>
+      <c r="J17" s="15">
+        <v>225182</v>
+      </c>
+      <c r="K17" s="15">
+        <v>945562</v>
+      </c>
+      <c r="L17" s="15">
         <v>502598</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>1292711</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>1474067</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>772517</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>816179</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>874632</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>250121</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>703824</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>1563430</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>1735400</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>2844609</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1679044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-11565</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-151133</v>
+      </c>
+      <c r="F18" s="11">
+        <v>94686</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-2108</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-92578</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-65047</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-47323</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-95820</v>
+      </c>
+      <c r="L18" s="11">
         <v>-177366</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-218245</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-196664</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-187798</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-360225</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-345683</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-392259</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-268375</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-457424</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-480195</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-308053</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-368559</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>5594</v>
+      </c>
+      <c r="E19" s="13">
+        <v>128920</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-58411</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-23961</v>
+      </c>
+      <c r="H19" s="13">
+        <v>82372</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9618</v>
+      </c>
+      <c r="J19" s="13">
+        <v>35808</v>
+      </c>
+      <c r="K19" s="13">
+        <v>173694</v>
+      </c>
+      <c r="L19" s="13">
         <v>149620</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>49885</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>-36359</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>100830</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>-97470</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>35659</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>41550</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>70991</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>-93644</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>2728</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>-51464</v>
+      </c>
+      <c r="W19" s="13">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>51916</v>
+      </c>
+      <c r="E20" s="17">
+        <v>281021</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-377950</v>
+      </c>
+      <c r="G20" s="17">
+        <v>110604</v>
+      </c>
+      <c r="H20" s="17">
+        <v>267346</v>
+      </c>
+      <c r="I20" s="17">
+        <v>263912</v>
+      </c>
+      <c r="J20" s="17">
+        <v>213667</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1023436</v>
+      </c>
+      <c r="L20" s="17">
         <v>474852</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>1124351</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>1241044</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>685549</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>358484</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>564608</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>-100588</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>506440</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>1012362</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>1257933</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>2485092</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1317121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-10612</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-51890</v>
+      </c>
+      <c r="F21" s="13">
+        <v>51890</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-46124</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-57216</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-185049</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-294020</v>
+      </c>
+      <c r="L21" s="13">
         <v>-217783</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-248284</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-120841</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-133580</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>2828</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-126979</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>39188</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-88144</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-194036</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-249874</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-457360</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-253232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>41304</v>
+      </c>
+      <c r="E22" s="17">
+        <v>229131</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-326060</v>
+      </c>
+      <c r="G22" s="17">
+        <v>110604</v>
+      </c>
+      <c r="H22" s="17">
+        <v>221222</v>
+      </c>
+      <c r="I22" s="17">
+        <v>206696</v>
+      </c>
+      <c r="J22" s="17">
+        <v>28618</v>
+      </c>
+      <c r="K22" s="17">
+        <v>729416</v>
+      </c>
+      <c r="L22" s="17">
         <v>257069</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>876067</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>1120203</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>551969</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>361312</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>437629</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>-61400</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>418296</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>818326</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>1008059</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>2027732</v>
+      </c>
+      <c r="W22" s="17">
+        <v>1063889</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,152 +1857,302 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>41304</v>
+      </c>
+      <c r="E24" s="17">
+        <v>229131</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-326060</v>
+      </c>
+      <c r="G24" s="17">
+        <v>110604</v>
+      </c>
+      <c r="H24" s="17">
+        <v>221222</v>
+      </c>
+      <c r="I24" s="17">
+        <v>206696</v>
+      </c>
+      <c r="J24" s="17">
+        <v>28618</v>
+      </c>
+      <c r="K24" s="17">
+        <v>729416</v>
+      </c>
+      <c r="L24" s="17">
         <v>257069</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>876067</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>1120203</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>551969</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>361312</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>437629</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>-61400</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>418296</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>818326</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>1008059</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>2027732</v>
+      </c>
+      <c r="W24" s="17">
+        <v>1063889</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>59</v>
+      </c>
+      <c r="E25" s="13">
+        <v>327</v>
+      </c>
+      <c r="F25" s="13">
+        <v>-466</v>
+      </c>
+      <c r="G25" s="13">
+        <v>158</v>
+      </c>
+      <c r="H25" s="13">
+        <v>316</v>
+      </c>
+      <c r="I25" s="13">
+        <v>295</v>
+      </c>
+      <c r="J25" s="13">
+        <v>14</v>
+      </c>
+      <c r="K25" s="13">
+        <v>335</v>
+      </c>
+      <c r="L25" s="13">
         <v>118</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>402</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>514</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>253</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>166</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>201</v>
       </c>
-      <c r="J25" s="13">
-        <v>-28</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="R25" s="13">
+        <v>-14</v>
+      </c>
+      <c r="S25" s="13">
         <v>96</v>
       </c>
-      <c r="L25" s="13">
+      <c r="T25" s="13">
         <v>188</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="13">
+        <v>465</v>
+      </c>
+      <c r="W25" s="13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>700000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2066240</v>
+      </c>
+      <c r="K26" s="11">
         <v>2180000</v>
       </c>
-      <c r="E26" s="11">
+      <c r="L26" s="11">
         <v>2180000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="M26" s="11">
         <v>2180000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="N26" s="11">
         <v>2180000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="O26" s="11">
         <v>2180000</v>
       </c>
-      <c r="I26" s="11">
+      <c r="P26" s="11">
         <v>2180000</v>
       </c>
-      <c r="J26" s="11">
+      <c r="Q26" s="11">
         <v>2180000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="R26" s="11">
         <v>4360000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="S26" s="11">
         <v>4360000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="T26" s="11">
         <v>4360000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="11">
+        <v>4360000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>4360000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>6540000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13">
+        <v>35</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-50</v>
+      </c>
+      <c r="G27" s="13">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13">
+        <v>34</v>
+      </c>
+      <c r="I27" s="13">
+        <v>32</v>
+      </c>
+      <c r="J27" s="13">
+        <v>4</v>
+      </c>
+      <c r="K27" s="13">
+        <v>112</v>
+      </c>
+      <c r="L27" s="13">
         <v>39</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>134</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>171</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>84</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>55</v>
       </c>
-      <c r="I27" s="13">
+      <c r="Q27" s="13">
         <v>67</v>
       </c>
-      <c r="J27" s="13">
+      <c r="R27" s="13">
         <v>-9</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>64</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>125</v>
       </c>
-      <c r="M27" s="13">
+      <c r="U27" s="13">
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="13">
+        <v>310</v>
+      </c>
+      <c r="W27" s="13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2165,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
